--- a/web/Planilla_2335.xlsx
+++ b/web/Planilla_2335.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>** Destinatario 1</t>
   </si>
@@ -104,37 +104,40 @@
     <t>Id Inventario</t>
   </si>
   <si>
-    <t>MARISOL  RIOS OSORIO</t>
-  </si>
-  <si>
-    <t>MARTHA OLIVA OSORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calle 61 b sur no 40 - 21 casa 138  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sabaneta </t>
-  </si>
-  <si>
-    <t>Medellín</t>
-  </si>
-  <si>
-    <t>RACLETTE 6 PTOS REDONDO</t>
-  </si>
-  <si>
-    <t>ELE0263</t>
-  </si>
-  <si>
-    <t>ELECTROMENORES</t>
-  </si>
-  <si>
-    <t>Socios &amp; Amigos Colombia</t>
-  </si>
-  <si>
-    <t>2887560 - 3116118909</t>
-  </si>
-  <si>
-    <t>2016-08-21</t>
+    <t xml:space="preserve">ROCINA  WONG </t>
+  </si>
+  <si>
+    <t>Carmen Teresa de Wong</t>
+  </si>
+  <si>
+    <t>El Cangrejo, Calle 55, Condominio del Caribe, Planta Baja, Local 2</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>Ciudad de Panama</t>
+  </si>
+  <si>
+    <t>RECARGA USD 50.</t>
+  </si>
+  <si>
+    <t>BON0902</t>
+  </si>
+  <si>
+    <t>BONOS</t>
+  </si>
+  <si>
+    <t>Socios &amp; Amigos internacionales</t>
+  </si>
+  <si>
+    <t>507263-6162 - 66763209</t>
+  </si>
+  <si>
+    <t>3169-16R</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
   </si>
 </sst>
 </file>
@@ -590,6 +593,9 @@
         <v>33</v>
       </c>
       <c r="G2"/>
+      <c r="H2">
+        <v>50</v>
+      </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
@@ -603,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
@@ -613,25 +619,28 @@
         <v>38</v>
       </c>
       <c r="R2">
-        <v>43828194</v>
+        <v>82202641</v>
       </c>
       <c r="S2">
-        <v>40048</v>
+        <v>40062</v>
       </c>
       <c r="T2">
-        <v>13335</v>
+        <v>8770</v>
       </c>
       <c r="U2">
-        <v>39133355019</v>
+        <v>3287709346</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
       </c>
       <c r="Y2">
-        <v>39469</v>
+        <v>39296</v>
       </c>
       <c r="Z2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC2">
-        <v>40048</v>
+        <v>40062</v>
       </c>
     </row>
   </sheetData>
